--- a/Classifier1/SVM.xlsx
+++ b/Classifier1/SVM.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hypertensive disease " sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pain" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADRCount" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,4 +638,138 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>FScore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4361022364217252</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.435908128568679</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4359304736489309</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4358399664851278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Weighted</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7424242424242425</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5317460317460317</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5097939885173929</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6804971988795518</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6182756259780907</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6044971200708905</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AskAPatient</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5157657657657657</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5096755736169358</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5157246343727647</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4959391534391535</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>